--- a/ValueSet-stroke-etiology-vs.xlsx
+++ b/ValueSet-stroke-etiology-vs.xlsx
@@ -85,7 +85,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Specifies the determined etiology of an stroke.</t>
+    <t>This ValueSet defines allowable values for recording the **determined ischemic stroke etiology**.
+**Primary use-case**
+- Required binding for `StrokeStrokeEtiologyExt.valueCodeableConcept` on definitive ischemic stroke Conditions.
+**Composition**
+- Local etiology categories (StrokeEtiologyCS), plus selected SNOMED CT disorder concepts for commonly used etiology groupings.
+**Implementation guidance**
+- Use after etiologic workup when a classification is assigned.
+- If etiology remains unknown/undetermined, use the included `Undetermined (qualifier value)`</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-stroke-etiology-vs.xlsx
+++ b/ValueSet-stroke-etiology-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
